--- a/DC-Data.xlsx
+++ b/DC-Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Utai_Files\Planing-Stock-EDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utaie\Desktop\Production and Stock Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03604F09-3091-4E57-9813-E953230D75E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FFD3A2-F737-4343-8D2F-E4EB79E0FD42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="97">
   <si>
     <t>DC-ID</t>
   </si>
@@ -151,7 +151,163 @@
     <t>Set Up</t>
   </si>
   <si>
+    <t>Down Mold</t>
+  </si>
+  <si>
+    <t>DownMold</t>
+  </si>
+  <si>
+    <t>SetUp</t>
+  </si>
+  <si>
+    <t>Furnace</t>
+  </si>
+  <si>
+    <t>จุดไม่ติด</t>
+  </si>
+  <si>
+    <t>จุดม่ติด</t>
+  </si>
+  <si>
     <t>3000</t>
+  </si>
+  <si>
+    <t>650T 01</t>
+  </si>
+  <si>
+    <t>หลอม</t>
+  </si>
+  <si>
+    <t>อุ่นเบ้าและหลอม</t>
+  </si>
+  <si>
+    <t>เช็ท/สไลด์ติด</t>
+  </si>
+  <si>
+    <t>สไลด์ติด</t>
+  </si>
+  <si>
+    <t>สไลด์ติดเอาพิมพ์ลง</t>
+  </si>
+  <si>
+    <t>4900</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>รอแม่พิมพ์ และ เซ็ท</t>
+  </si>
+  <si>
+    <t>แก้ใขรอยเบียดครูด งานเป็นสเต็ป</t>
+  </si>
+  <si>
+    <t>เปลี่ยนแคสติ้งเดท</t>
+  </si>
+  <si>
+    <t>แก้ใขสไลด์</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>350T 02</t>
+  </si>
+  <si>
+    <t>5130</t>
+  </si>
+  <si>
+    <t>เปลี่ยนรุ่น</t>
+  </si>
+  <si>
+    <t>2532</t>
+  </si>
+  <si>
+    <t>2633</t>
+  </si>
+  <si>
+    <t>ปั้มมีปัญหา</t>
+  </si>
+  <si>
+    <t>ซ่อมเครื่องและเอาพิมพ์ลงเนื่องจากแฟลช</t>
+  </si>
+  <si>
+    <t>9330</t>
+  </si>
+  <si>
+    <t>แฟลช</t>
+  </si>
+  <si>
+    <t>แก้ใขครีบ</t>
+  </si>
+  <si>
+    <t>แขนกลมีปัญหา</t>
+  </si>
+  <si>
+    <t>Set up</t>
+  </si>
+  <si>
+    <t>9680</t>
+  </si>
+  <si>
+    <t>5230</t>
+  </si>
+  <si>
+    <t>9775</t>
+  </si>
+  <si>
+    <t>ซ่อมเตา</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>350T 01</t>
+  </si>
+  <si>
+    <t>3113</t>
+  </si>
+  <si>
+    <t>9524</t>
+  </si>
+  <si>
+    <t>Set up Mold</t>
+  </si>
+  <si>
+    <t>Set up mold</t>
+  </si>
+  <si>
+    <t>แก้ไขหัวยิง</t>
+  </si>
+  <si>
+    <t>เอาพิมพ์ลง</t>
+  </si>
+  <si>
+    <t>แก้ไขงานติด</t>
+  </si>
+  <si>
+    <t>พิมพ์ลง</t>
+  </si>
+  <si>
+    <t>พิมพ์ติด</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>หลอม Mat.</t>
+  </si>
+  <si>
+    <t>ปั๊มไฮดรอลิกเสีย</t>
+  </si>
+  <si>
+    <t>สไสด์ติด</t>
+  </si>
+  <si>
+    <t>สไลส์ติด</t>
+  </si>
+  <si>
+    <t>แก้ไขพิมพ์</t>
   </si>
   <si>
     <t>BF-Pcs</t>
@@ -164,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mmm\-yy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,8 +359,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +408,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,6 +435,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -370,8 +552,8 @@
     <xf numFmtId="4" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -762,7 +944,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -866,7 +1048,7 @@
         <v>1.80878552971576</v>
       </c>
       <c r="L2" s="2">
-        <v>2000</v>
+        <v>380</v>
       </c>
       <c r="M2" s="2">
         <v>365</v>
@@ -918,8 +1100,8 @@
       <c r="E3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>43</v>
+      <c r="F3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>36</v>
@@ -937,7 +1119,7 @@
         <v>0.775193798449612</v>
       </c>
       <c r="L3" s="2">
-        <v>2000</v>
+        <v>384</v>
       </c>
       <c r="M3" s="2">
         <v>240</v>
@@ -1008,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>2000</v>
+        <v>298</v>
       </c>
       <c r="M4" s="2">
         <v>180</v>
@@ -1042,6 +1224,8852 @@
       </c>
       <c r="AH4" s="4" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>366</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3">
+        <v>44106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="2">
+        <v>660</v>
+      </c>
+      <c r="I5" s="2">
+        <v>362</v>
+      </c>
+      <c r="J5" s="2">
+        <v>7</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1.9337016574585599</v>
+      </c>
+      <c r="L5" s="2">
+        <v>355</v>
+      </c>
+      <c r="M5" s="2">
+        <v>240</v>
+      </c>
+      <c r="O5" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8</v>
+      </c>
+      <c r="R5" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>367</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44107</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2">
+        <v>660</v>
+      </c>
+      <c r="I6" s="2">
+        <v>439</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.68337129840546695</v>
+      </c>
+      <c r="L6" s="2">
+        <v>436</v>
+      </c>
+      <c r="M6" s="2">
+        <v>480</v>
+      </c>
+      <c r="O6" s="2">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>9</v>
+      </c>
+      <c r="R6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH6" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>368</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3">
+        <v>44107</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="2">
+        <v>660</v>
+      </c>
+      <c r="I7" s="2">
+        <v>447</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>447</v>
+      </c>
+      <c r="M7" s="2">
+        <v>300</v>
+      </c>
+      <c r="O7" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>369</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44108</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="2">
+        <v>660</v>
+      </c>
+      <c r="I8" s="2">
+        <v>374</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>374</v>
+      </c>
+      <c r="M8" s="2">
+        <v>240</v>
+      </c>
+      <c r="O8" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>8</v>
+      </c>
+      <c r="R8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH8" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>370</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44108</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="2">
+        <v>660</v>
+      </c>
+      <c r="I9" s="2">
+        <v>350</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>350</v>
+      </c>
+      <c r="M9" s="2">
+        <v>300</v>
+      </c>
+      <c r="O9" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>8</v>
+      </c>
+      <c r="R9" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>371</v>
+      </c>
+      <c r="B10" s="2">
+        <v>41</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2">
+        <v>660</v>
+      </c>
+      <c r="I10" s="2">
+        <v>322</v>
+      </c>
+      <c r="J10" s="2">
+        <v>11</v>
+      </c>
+      <c r="K10" s="6">
+        <v>3.41614906832298</v>
+      </c>
+      <c r="L10" s="2">
+        <v>311</v>
+      </c>
+      <c r="M10" s="2">
+        <v>300</v>
+      </c>
+      <c r="O10" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7</v>
+      </c>
+      <c r="R10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>372</v>
+      </c>
+      <c r="B11" s="2">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="2">
+        <v>660</v>
+      </c>
+      <c r="I11" s="2">
+        <v>515</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>515</v>
+      </c>
+      <c r="M11" s="2">
+        <v>360</v>
+      </c>
+      <c r="O11" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>12</v>
+      </c>
+      <c r="R11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>373</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44110</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2">
+        <v>180</v>
+      </c>
+      <c r="I12" s="2">
+        <v>76</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>76</v>
+      </c>
+      <c r="M12" s="2">
+        <v>120</v>
+      </c>
+      <c r="O12" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>374</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44110</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="2">
+        <v>180</v>
+      </c>
+      <c r="I13" s="2">
+        <v>130</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>130</v>
+      </c>
+      <c r="M13" s="2">
+        <v>120</v>
+      </c>
+      <c r="O13" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>375</v>
+      </c>
+      <c r="B14" s="2">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="2">
+        <v>660</v>
+      </c>
+      <c r="I14" s="2">
+        <v>546</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.54945054945054905</v>
+      </c>
+      <c r="L14" s="2">
+        <v>543</v>
+      </c>
+      <c r="M14" s="2">
+        <v>420</v>
+      </c>
+      <c r="O14" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>12</v>
+      </c>
+      <c r="R14" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>376</v>
+      </c>
+      <c r="B15" s="2">
+        <v>41</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="2">
+        <v>660</v>
+      </c>
+      <c r="I15" s="2">
+        <v>480</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>480</v>
+      </c>
+      <c r="M15" s="2">
+        <v>300</v>
+      </c>
+      <c r="O15" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>10</v>
+      </c>
+      <c r="R15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>377</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44112</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="2">
+        <v>660</v>
+      </c>
+      <c r="I16" s="2">
+        <v>358</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.67597765363128</v>
+      </c>
+      <c r="L16" s="2">
+        <v>352</v>
+      </c>
+      <c r="M16" s="2">
+        <v>300</v>
+      </c>
+      <c r="O16" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>8</v>
+      </c>
+      <c r="R16" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH16" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>378</v>
+      </c>
+      <c r="B17" s="2">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44112</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="2">
+        <v>287</v>
+      </c>
+      <c r="I17" s="2">
+        <v>287</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7</v>
+      </c>
+      <c r="K17" s="6">
+        <v>2.4390243902439002</v>
+      </c>
+      <c r="L17" s="2">
+        <v>280</v>
+      </c>
+      <c r="M17" s="2">
+        <v>240</v>
+      </c>
+      <c r="O17" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>8</v>
+      </c>
+      <c r="R17" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>379</v>
+      </c>
+      <c r="B18" s="2">
+        <v>41</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="2">
+        <v>660</v>
+      </c>
+      <c r="I18" s="2">
+        <v>385</v>
+      </c>
+      <c r="J18" s="2">
+        <v>7</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1.8181818181818199</v>
+      </c>
+      <c r="L18" s="2">
+        <v>378</v>
+      </c>
+      <c r="M18" s="2">
+        <v>240</v>
+      </c>
+      <c r="O18" s="2">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>9</v>
+      </c>
+      <c r="R18" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>380</v>
+      </c>
+      <c r="B19" s="2">
+        <v>41</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="2">
+        <v>660</v>
+      </c>
+      <c r="I19" s="2">
+        <v>519</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.96339113680154098</v>
+      </c>
+      <c r="L19" s="2">
+        <v>514</v>
+      </c>
+      <c r="M19" s="2">
+        <v>300</v>
+      </c>
+      <c r="O19" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>11</v>
+      </c>
+      <c r="R19" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>381</v>
+      </c>
+      <c r="B20" s="2">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44105</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="2">
+        <v>200</v>
+      </c>
+      <c r="I20" s="2">
+        <v>190</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2">
+        <v>190</v>
+      </c>
+      <c r="M20" s="2">
+        <v>200</v>
+      </c>
+      <c r="O20" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+      <c r="R20" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>382</v>
+      </c>
+      <c r="B21" s="2">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44106</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="2">
+        <v>400</v>
+      </c>
+      <c r="I21" s="2">
+        <v>225</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.3333333333333299</v>
+      </c>
+      <c r="L21" s="2">
+        <v>222</v>
+      </c>
+      <c r="M21" s="2">
+        <v>160</v>
+      </c>
+      <c r="N21" s="2">
+        <v>20</v>
+      </c>
+      <c r="O21" s="2">
+        <v>200</v>
+      </c>
+      <c r="P21" s="2">
+        <v>380</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>7</v>
+      </c>
+      <c r="R21" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>380</v>
+      </c>
+      <c r="AC21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>380</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>383</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44107</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2">
+        <v>200</v>
+      </c>
+      <c r="I22" s="2">
+        <v>180</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <v>180</v>
+      </c>
+      <c r="M22" s="2">
+        <v>200</v>
+      </c>
+      <c r="O22" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>5</v>
+      </c>
+      <c r="R22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>384</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44108</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="2">
+        <v>500</v>
+      </c>
+      <c r="I23" s="2">
+        <v>170</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2">
+        <v>170</v>
+      </c>
+      <c r="O23" s="2">
+        <v>430</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>6</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>385</v>
+      </c>
+      <c r="B24" s="2">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3">
+        <v>44108</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="2">
+        <v>500</v>
+      </c>
+      <c r="I24" s="2">
+        <v>370</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>370</v>
+      </c>
+      <c r="O24" s="2">
+        <v>730</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>6</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>386</v>
+      </c>
+      <c r="B25" s="2">
+        <v>41</v>
+      </c>
+      <c r="C25" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" s="2">
+        <v>500</v>
+      </c>
+      <c r="I25" s="2">
+        <v>180</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>180</v>
+      </c>
+      <c r="O25" s="2">
+        <v>491</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>6</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>387</v>
+      </c>
+      <c r="B26" s="2">
+        <v>41</v>
+      </c>
+      <c r="C26" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="2">
+        <v>500</v>
+      </c>
+      <c r="I26" s="2">
+        <v>345</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>345</v>
+      </c>
+      <c r="M26" s="2">
+        <v>270</v>
+      </c>
+      <c r="O26" s="2">
+        <v>220</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>9</v>
+      </c>
+      <c r="R26" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>388</v>
+      </c>
+      <c r="B27" s="2">
+        <v>41</v>
+      </c>
+      <c r="C27" s="3">
+        <v>44110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="2">
+        <v>500</v>
+      </c>
+      <c r="I27" s="2">
+        <v>115</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>115</v>
+      </c>
+      <c r="M27" s="2">
+        <v>150</v>
+      </c>
+      <c r="O27" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>3</v>
+      </c>
+      <c r="R27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH27" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>389</v>
+      </c>
+      <c r="B28" s="2">
+        <v>41</v>
+      </c>
+      <c r="C28" s="3">
+        <v>44110</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2">
+        <v>500</v>
+      </c>
+      <c r="I28" s="2">
+        <v>335</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>335</v>
+      </c>
+      <c r="M28" s="2">
+        <v>400</v>
+      </c>
+      <c r="O28" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>9</v>
+      </c>
+      <c r="R28" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH28" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>390</v>
+      </c>
+      <c r="B29" s="2">
+        <v>41</v>
+      </c>
+      <c r="C29" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2">
+        <v>500</v>
+      </c>
+      <c r="I29" s="2">
+        <v>285</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>285</v>
+      </c>
+      <c r="M29" s="2">
+        <v>137</v>
+      </c>
+      <c r="O29" s="2">
+        <v>200</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>10</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH29" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>391</v>
+      </c>
+      <c r="B30" s="2">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="2">
+        <v>500</v>
+      </c>
+      <c r="I30" s="2">
+        <v>245</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>245</v>
+      </c>
+      <c r="M30" s="2">
+        <v>390</v>
+      </c>
+      <c r="O30" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>9</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH30" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>392</v>
+      </c>
+      <c r="B31" s="2">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3">
+        <v>44112</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="2">
+        <v>500</v>
+      </c>
+      <c r="I31" s="2">
+        <v>323</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0.92879256965944301</v>
+      </c>
+      <c r="L31" s="2">
+        <v>320</v>
+      </c>
+      <c r="M31" s="2">
+        <v>250</v>
+      </c>
+      <c r="O31" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>12</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>393</v>
+      </c>
+      <c r="B32" s="2">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3">
+        <v>44112</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="2">
+        <v>500</v>
+      </c>
+      <c r="I32" s="2">
+        <v>205</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>205</v>
+      </c>
+      <c r="M32" s="2">
+        <v>270</v>
+      </c>
+      <c r="O32" s="2">
+        <v>180</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>5</v>
+      </c>
+      <c r="R32" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH32" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>394</v>
+      </c>
+      <c r="B33" s="2">
+        <v>41</v>
+      </c>
+      <c r="C33" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="2">
+        <v>500</v>
+      </c>
+      <c r="I33" s="2">
+        <v>360</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2">
+        <v>360</v>
+      </c>
+      <c r="M33" s="2">
+        <v>544</v>
+      </c>
+      <c r="O33" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>11</v>
+      </c>
+      <c r="R33" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH33" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>395</v>
+      </c>
+      <c r="B34" s="2">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="2">
+        <v>500</v>
+      </c>
+      <c r="I34" s="2">
+        <v>400</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2">
+        <v>400</v>
+      </c>
+      <c r="M34" s="2">
+        <v>360</v>
+      </c>
+      <c r="O34" s="2">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>11</v>
+      </c>
+      <c r="R34" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH34" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>396</v>
+      </c>
+      <c r="B35" s="2">
+        <v>40</v>
+      </c>
+      <c r="C35" s="3">
+        <v>44105</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="2">
+        <v>300</v>
+      </c>
+      <c r="I35" s="2">
+        <v>215</v>
+      </c>
+      <c r="J35" s="2">
+        <v>23</v>
+      </c>
+      <c r="K35" s="6">
+        <v>10.6976744186047</v>
+      </c>
+      <c r="L35" s="2">
+        <v>192</v>
+      </c>
+      <c r="M35" s="2">
+        <v>240</v>
+      </c>
+      <c r="O35" s="2">
+        <v>248</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>6</v>
+      </c>
+      <c r="R35" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH35" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>397</v>
+      </c>
+      <c r="B36" s="2">
+        <v>40</v>
+      </c>
+      <c r="C36" s="3">
+        <v>44106</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="2">
+        <v>300</v>
+      </c>
+      <c r="I36" s="2">
+        <v>50</v>
+      </c>
+      <c r="J36" s="2">
+        <v>18</v>
+      </c>
+      <c r="K36" s="6">
+        <v>36</v>
+      </c>
+      <c r="L36" s="2">
+        <v>32</v>
+      </c>
+      <c r="M36" s="2">
+        <v>110</v>
+      </c>
+      <c r="O36" s="2">
+        <v>130</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>2</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH36" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>398</v>
+      </c>
+      <c r="B37" s="2">
+        <v>40</v>
+      </c>
+      <c r="C37" s="3">
+        <v>44107</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="2">
+        <v>300</v>
+      </c>
+      <c r="I37" s="2">
+        <v>270</v>
+      </c>
+      <c r="J37" s="2">
+        <v>39</v>
+      </c>
+      <c r="K37" s="6">
+        <v>14.4444444444444</v>
+      </c>
+      <c r="L37" s="2">
+        <v>231</v>
+      </c>
+      <c r="M37" s="2">
+        <v>110</v>
+      </c>
+      <c r="O37" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5</v>
+      </c>
+      <c r="R37" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>350</v>
+      </c>
+      <c r="AG37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>399</v>
+      </c>
+      <c r="B38" s="2">
+        <v>40</v>
+      </c>
+      <c r="C38" s="3">
+        <v>44108</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="2">
+        <v>300</v>
+      </c>
+      <c r="I38" s="2">
+        <v>208</v>
+      </c>
+      <c r="J38" s="2">
+        <v>33</v>
+      </c>
+      <c r="K38" s="6">
+        <v>15.865384615384601</v>
+      </c>
+      <c r="L38" s="2">
+        <v>175</v>
+      </c>
+      <c r="M38" s="2">
+        <v>201</v>
+      </c>
+      <c r="O38" s="2">
+        <v>237</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>6</v>
+      </c>
+      <c r="R38" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH38" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>400</v>
+      </c>
+      <c r="B39" s="2">
+        <v>41</v>
+      </c>
+      <c r="C39" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="2">
+        <v>300</v>
+      </c>
+      <c r="I39" s="2">
+        <v>105</v>
+      </c>
+      <c r="J39" s="2">
+        <v>30</v>
+      </c>
+      <c r="K39" s="6">
+        <v>28.571428571428601</v>
+      </c>
+      <c r="L39" s="2">
+        <v>75</v>
+      </c>
+      <c r="M39" s="2">
+        <v>80</v>
+      </c>
+      <c r="O39" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>3</v>
+      </c>
+      <c r="R39" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH39" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>401</v>
+      </c>
+      <c r="B40" s="2">
+        <v>41</v>
+      </c>
+      <c r="C40" s="3">
+        <v>44109</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="2">
+        <v>300</v>
+      </c>
+      <c r="I40" s="2">
+        <v>71</v>
+      </c>
+      <c r="J40" s="2">
+        <v>20</v>
+      </c>
+      <c r="K40" s="6">
+        <v>28.169014084507001</v>
+      </c>
+      <c r="L40" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>2</v>
+      </c>
+      <c r="R40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH40" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>402</v>
+      </c>
+      <c r="B41" s="2">
+        <v>41</v>
+      </c>
+      <c r="C41" s="3">
+        <v>44110</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H41" s="2">
+        <v>300</v>
+      </c>
+      <c r="I41" s="2">
+        <v>293</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0.34129692832764502</v>
+      </c>
+      <c r="L41" s="2">
+        <v>292</v>
+      </c>
+      <c r="M41" s="2">
+        <v>120</v>
+      </c>
+      <c r="O41" s="2">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>8</v>
+      </c>
+      <c r="R41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH41" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>403</v>
+      </c>
+      <c r="B42" s="2">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="2">
+        <v>300</v>
+      </c>
+      <c r="I42" s="2">
+        <v>130</v>
+      </c>
+      <c r="J42" s="2">
+        <v>17</v>
+      </c>
+      <c r="K42" s="6">
+        <v>13.0769230769231</v>
+      </c>
+      <c r="L42" s="2">
+        <v>113</v>
+      </c>
+      <c r="M42" s="2">
+        <v>140</v>
+      </c>
+      <c r="O42" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>3</v>
+      </c>
+      <c r="R42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH42" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>404</v>
+      </c>
+      <c r="B43" s="2">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <v>44111</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="2">
+        <v>300</v>
+      </c>
+      <c r="I43" s="2">
+        <v>105</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <v>105</v>
+      </c>
+      <c r="M43" s="2">
+        <v>140</v>
+      </c>
+      <c r="O43" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>5</v>
+      </c>
+      <c r="R43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH43" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>405</v>
+      </c>
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3">
+        <v>44112</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="2">
+        <v>300</v>
+      </c>
+      <c r="I44" s="2">
+        <v>147</v>
+      </c>
+      <c r="J44" s="2">
+        <v>17</v>
+      </c>
+      <c r="K44" s="6">
+        <v>11.5646258503401</v>
+      </c>
+      <c r="L44" s="2">
+        <v>130</v>
+      </c>
+      <c r="M44" s="2">
+        <v>146</v>
+      </c>
+      <c r="O44" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>4</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH44" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>406</v>
+      </c>
+      <c r="B45" s="2">
+        <v>41</v>
+      </c>
+      <c r="C45" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="2">
+        <v>300</v>
+      </c>
+      <c r="I45" s="2">
+        <v>124</v>
+      </c>
+      <c r="J45" s="2">
+        <v>19</v>
+      </c>
+      <c r="K45" s="6">
+        <v>15.322580645161301</v>
+      </c>
+      <c r="L45" s="2">
+        <v>105</v>
+      </c>
+      <c r="M45" s="2">
+        <v>175</v>
+      </c>
+      <c r="O45" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>4</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH45" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>407</v>
+      </c>
+      <c r="B46" s="2">
+        <v>41</v>
+      </c>
+      <c r="C46" s="3">
+        <v>44113</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" s="2">
+        <v>300</v>
+      </c>
+      <c r="I46" s="2">
+        <v>172</v>
+      </c>
+      <c r="J46" s="2">
+        <v>15</v>
+      </c>
+      <c r="K46" s="6">
+        <v>8.7209302325581408</v>
+      </c>
+      <c r="L46" s="2">
+        <v>157</v>
+      </c>
+      <c r="M46" s="2">
+        <v>204</v>
+      </c>
+      <c r="O46" s="2">
+        <v>90</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>5</v>
+      </c>
+      <c r="R46" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>408</v>
+      </c>
+      <c r="B47" s="2">
+        <v>42</v>
+      </c>
+      <c r="C47" s="3">
+        <v>44114</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H47" s="2">
+        <v>720</v>
+      </c>
+      <c r="I47" s="2">
+        <v>250</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="L47" s="2">
+        <v>248</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>8</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH47" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>409</v>
+      </c>
+      <c r="B48" s="2">
+        <v>42</v>
+      </c>
+      <c r="C48" s="3">
+        <v>44114</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="2">
+        <v>660</v>
+      </c>
+      <c r="I48" s="2">
+        <v>52</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>8</v>
+      </c>
+      <c r="R48" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>410</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="3">
+        <v>44114</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="2">
+        <v>660</v>
+      </c>
+      <c r="I49" s="2">
+        <v>561</v>
+      </c>
+      <c r="J49" s="2">
+        <v>9</v>
+      </c>
+      <c r="K49" s="6">
+        <v>1.6042780748663099</v>
+      </c>
+      <c r="L49" s="2">
+        <v>552</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>8</v>
+      </c>
+      <c r="R49" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH49" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>411</v>
+      </c>
+      <c r="B50" s="2">
+        <v>42</v>
+      </c>
+      <c r="C50" s="3">
+        <v>44117</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="2">
+        <v>720</v>
+      </c>
+      <c r="I50" s="2">
+        <v>491</v>
+      </c>
+      <c r="J50" s="2">
+        <v>6</v>
+      </c>
+      <c r="K50" s="6">
+        <v>1.22199592668024</v>
+      </c>
+      <c r="L50" s="2">
+        <v>485</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>8</v>
+      </c>
+      <c r="R50" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH50" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>412</v>
+      </c>
+      <c r="B51" s="2">
+        <v>42</v>
+      </c>
+      <c r="C51" s="3">
+        <v>44117</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="2">
+        <v>720</v>
+      </c>
+      <c r="I51" s="2">
+        <v>527</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0.18975332068311199</v>
+      </c>
+      <c r="L51" s="2">
+        <v>526</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>8</v>
+      </c>
+      <c r="R51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH51" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>413</v>
+      </c>
+      <c r="B52" s="2">
+        <v>42</v>
+      </c>
+      <c r="C52" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="2">
+        <v>660</v>
+      </c>
+      <c r="I52" s="2">
+        <v>49</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <v>49</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>8</v>
+      </c>
+      <c r="R52" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG52" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH52" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>414</v>
+      </c>
+      <c r="B53" s="2">
+        <v>42</v>
+      </c>
+      <c r="C53" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="2">
+        <v>660</v>
+      </c>
+      <c r="I53" s="2">
+        <v>400</v>
+      </c>
+      <c r="J53" s="2">
+        <v>56</v>
+      </c>
+      <c r="K53" s="6">
+        <v>14</v>
+      </c>
+      <c r="L53" s="2">
+        <v>344</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>8</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>415</v>
+      </c>
+      <c r="B54" s="2">
+        <v>42</v>
+      </c>
+      <c r="C54" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H54" s="2">
+        <v>720</v>
+      </c>
+      <c r="I54" s="2">
+        <v>330</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="6">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <v>330</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>8</v>
+      </c>
+      <c r="R54" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH54" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>416</v>
+      </c>
+      <c r="B55" s="2">
+        <v>42</v>
+      </c>
+      <c r="C55" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H55" s="2">
+        <v>720</v>
+      </c>
+      <c r="I55" s="2">
+        <v>545</v>
+      </c>
+      <c r="J55" s="2">
+        <v>11</v>
+      </c>
+      <c r="K55" s="6">
+        <v>2.01834862385321</v>
+      </c>
+      <c r="L55" s="2">
+        <v>534</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>8</v>
+      </c>
+      <c r="R55" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH55" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>417</v>
+      </c>
+      <c r="B56" s="2">
+        <v>42</v>
+      </c>
+      <c r="C56" s="3">
+        <v>44115</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H56" s="2">
+        <v>600</v>
+      </c>
+      <c r="I56" s="2">
+        <v>233</v>
+      </c>
+      <c r="J56" s="2">
+        <v>50</v>
+      </c>
+      <c r="K56" s="6">
+        <v>21.4592274678112</v>
+      </c>
+      <c r="L56" s="2">
+        <v>183</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>8</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH56" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>418</v>
+      </c>
+      <c r="B57" s="2">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3">
+        <v>44116</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H57" s="2">
+        <v>720</v>
+      </c>
+      <c r="I57" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="L57" s="2">
+        <v>66</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>2</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH57" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>419</v>
+      </c>
+      <c r="B58" s="2">
+        <v>42</v>
+      </c>
+      <c r="C58" s="3">
+        <v>44116</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H58" s="2">
+        <v>720</v>
+      </c>
+      <c r="I58" s="2">
+        <v>198</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2">
+        <v>198</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>8</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH58" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>420</v>
+      </c>
+      <c r="B59" s="2">
+        <v>42</v>
+      </c>
+      <c r="C59" s="3">
+        <v>44117</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H59" s="2">
+        <v>600</v>
+      </c>
+      <c r="I59" s="2">
+        <v>110</v>
+      </c>
+      <c r="J59" s="2">
+        <v>10</v>
+      </c>
+      <c r="K59" s="6">
+        <v>9.0909090909090899</v>
+      </c>
+      <c r="L59" s="2">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>8</v>
+      </c>
+      <c r="R59" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y59" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH59" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>421</v>
+      </c>
+      <c r="B60" s="2">
+        <v>42</v>
+      </c>
+      <c r="C60" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" s="2">
+        <v>600</v>
+      </c>
+      <c r="I60" s="2">
+        <v>320</v>
+      </c>
+      <c r="J60" s="2">
+        <v>20</v>
+      </c>
+      <c r="K60" s="6">
+        <v>6.25</v>
+      </c>
+      <c r="L60" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>8</v>
+      </c>
+      <c r="R60" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y60" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG60" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH60" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>422</v>
+      </c>
+      <c r="B61" s="2">
+        <v>42</v>
+      </c>
+      <c r="C61" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61" s="2">
+        <v>720</v>
+      </c>
+      <c r="I61" s="2">
+        <v>146</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0</v>
+      </c>
+      <c r="K61" s="6">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2">
+        <v>146</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>8</v>
+      </c>
+      <c r="R61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH61" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>423</v>
+      </c>
+      <c r="B62" s="2">
+        <v>42</v>
+      </c>
+      <c r="C62" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H62" s="2">
+        <v>600</v>
+      </c>
+      <c r="I62" s="2">
+        <v>250</v>
+      </c>
+      <c r="J62" s="2">
+        <v>29</v>
+      </c>
+      <c r="K62" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="L62" s="2">
+        <v>221</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>8</v>
+      </c>
+      <c r="R62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH62" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>424</v>
+      </c>
+      <c r="B63" s="2">
+        <v>42</v>
+      </c>
+      <c r="C63" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H63" s="2">
+        <v>720</v>
+      </c>
+      <c r="I63" s="2">
+        <v>168</v>
+      </c>
+      <c r="J63" s="2">
+        <v>16</v>
+      </c>
+      <c r="K63" s="6">
+        <v>9.5238095238095202</v>
+      </c>
+      <c r="L63" s="2">
+        <v>152</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>8</v>
+      </c>
+      <c r="R63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH63" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>425</v>
+      </c>
+      <c r="B64" s="2">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3">
+        <v>44115</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H64" s="2">
+        <v>540</v>
+      </c>
+      <c r="I64" s="2">
+        <v>290</v>
+      </c>
+      <c r="J64" s="2">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="2">
+        <v>290</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>8</v>
+      </c>
+      <c r="R64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH64" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>426</v>
+      </c>
+      <c r="B65" s="2">
+        <v>42</v>
+      </c>
+      <c r="C65" s="3">
+        <v>44116</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H65" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I65" s="2">
+        <v>404</v>
+      </c>
+      <c r="J65" s="2">
+        <v>202</v>
+      </c>
+      <c r="K65" s="6">
+        <v>50</v>
+      </c>
+      <c r="L65" s="2">
+        <v>202</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>8</v>
+      </c>
+      <c r="R65" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH65" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>427</v>
+      </c>
+      <c r="B66" s="2">
+        <v>42</v>
+      </c>
+      <c r="C66" s="3">
+        <v>44116</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I66" s="2">
+        <v>480</v>
+      </c>
+      <c r="J66" s="2">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="2">
+        <v>480</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>8</v>
+      </c>
+      <c r="R66" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH66" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>428</v>
+      </c>
+      <c r="B67" s="2">
+        <v>42</v>
+      </c>
+      <c r="C67" s="3">
+        <v>44117</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="2">
+        <v>540</v>
+      </c>
+      <c r="I67" s="2">
+        <v>306</v>
+      </c>
+      <c r="J67" s="2">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="2">
+        <v>306</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>8</v>
+      </c>
+      <c r="R67" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH67" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>429</v>
+      </c>
+      <c r="B68" s="2">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3">
+        <v>44117</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" s="2">
+        <v>540</v>
+      </c>
+      <c r="I68" s="2">
+        <v>310</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="2">
+        <v>310</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>8</v>
+      </c>
+      <c r="R68" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH68" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>430</v>
+      </c>
+      <c r="B69" s="2">
+        <v>42</v>
+      </c>
+      <c r="C69" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H69" s="2">
+        <v>540</v>
+      </c>
+      <c r="I69" s="2">
+        <v>310</v>
+      </c>
+      <c r="J69" s="2">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="2">
+        <v>310</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>8</v>
+      </c>
+      <c r="R69" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH69" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>431</v>
+      </c>
+      <c r="B70" s="2">
+        <v>42</v>
+      </c>
+      <c r="C70" s="3">
+        <v>44118</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H70" s="2">
+        <v>540</v>
+      </c>
+      <c r="I70" s="2">
+        <v>405</v>
+      </c>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="2">
+        <v>405</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>8</v>
+      </c>
+      <c r="R70" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH70" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>432</v>
+      </c>
+      <c r="B71" s="2">
+        <v>42</v>
+      </c>
+      <c r="C71" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H71" s="2">
+        <v>540</v>
+      </c>
+      <c r="I71" s="2">
+        <v>360</v>
+      </c>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="2">
+        <v>360</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>8</v>
+      </c>
+      <c r="R71" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH71" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>433</v>
+      </c>
+      <c r="B72" s="2">
+        <v>42</v>
+      </c>
+      <c r="C72" s="3">
+        <v>44119</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H72" s="2">
+        <v>540</v>
+      </c>
+      <c r="I72" s="2">
+        <v>368</v>
+      </c>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="2">
+        <v>368</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>8</v>
+      </c>
+      <c r="R72" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH72" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>434</v>
+      </c>
+      <c r="B73" s="2">
+        <v>42</v>
+      </c>
+      <c r="C73" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="2">
+        <v>720</v>
+      </c>
+      <c r="I73" s="2">
+        <v>478</v>
+      </c>
+      <c r="J73" s="2">
+        <v>9</v>
+      </c>
+      <c r="K73" s="6">
+        <v>1.8828451882845201</v>
+      </c>
+      <c r="L73" s="2">
+        <v>469</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>8</v>
+      </c>
+      <c r="R73" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH73" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>435</v>
+      </c>
+      <c r="B74" s="2">
+        <v>42</v>
+      </c>
+      <c r="C74" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" s="2">
+        <v>720</v>
+      </c>
+      <c r="I74" s="2">
+        <v>555</v>
+      </c>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="2">
+        <v>555</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>8</v>
+      </c>
+      <c r="R74" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y74" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH74" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>436</v>
+      </c>
+      <c r="B75" s="2">
+        <v>42</v>
+      </c>
+      <c r="C75" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="2">
+        <v>540</v>
+      </c>
+      <c r="I75" s="2">
+        <v>225</v>
+      </c>
+      <c r="J75" s="2">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="2">
+        <v>225</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>8</v>
+      </c>
+      <c r="R75" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y75" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH75" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>437</v>
+      </c>
+      <c r="B76" s="2">
+        <v>42</v>
+      </c>
+      <c r="C76" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H76" s="2">
+        <v>540</v>
+      </c>
+      <c r="I76" s="2">
+        <v>450</v>
+      </c>
+      <c r="J76" s="2">
+        <v>0</v>
+      </c>
+      <c r="K76" s="6">
+        <v>0</v>
+      </c>
+      <c r="L76" s="2">
+        <v>450</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>8</v>
+      </c>
+      <c r="R76" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y76" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH76" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>438</v>
+      </c>
+      <c r="B77" s="2">
+        <v>42</v>
+      </c>
+      <c r="C77" s="3">
+        <v>44120</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="2">
+        <v>600</v>
+      </c>
+      <c r="I77" s="2">
+        <v>145</v>
+      </c>
+      <c r="J77" s="2">
+        <v>0</v>
+      </c>
+      <c r="K77" s="6">
+        <v>0</v>
+      </c>
+      <c r="L77" s="2">
+        <v>145</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>8</v>
+      </c>
+      <c r="R77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH77" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>439</v>
+      </c>
+      <c r="B78" s="2">
+        <v>42</v>
+      </c>
+      <c r="C78" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H78" s="2">
+        <v>720</v>
+      </c>
+      <c r="I78" s="2">
+        <v>493</v>
+      </c>
+      <c r="J78" s="2">
+        <v>3</v>
+      </c>
+      <c r="K78" s="6">
+        <v>0.60851926977687598</v>
+      </c>
+      <c r="L78" s="2">
+        <v>490</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>8</v>
+      </c>
+      <c r="R78" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH78" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>440</v>
+      </c>
+      <c r="B79" s="2">
+        <v>42</v>
+      </c>
+      <c r="C79" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H79" s="2">
+        <v>720</v>
+      </c>
+      <c r="I79" s="2">
+        <v>201</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+      <c r="K79" s="6">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>201</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>5</v>
+      </c>
+      <c r="R79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG79" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH79" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>441</v>
+      </c>
+      <c r="B80" s="2">
+        <v>42</v>
+      </c>
+      <c r="C80" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H80" s="2">
+        <v>540</v>
+      </c>
+      <c r="I80" s="2">
+        <v>375</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+      <c r="K80" s="6">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>375</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>8</v>
+      </c>
+      <c r="R80" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG80" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH80" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>442</v>
+      </c>
+      <c r="B81" s="2">
+        <v>42</v>
+      </c>
+      <c r="C81" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" s="2">
+        <v>540</v>
+      </c>
+      <c r="I81" s="2">
+        <v>240</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>240</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>6</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG81" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH81" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>443</v>
+      </c>
+      <c r="B82" s="2">
+        <v>42</v>
+      </c>
+      <c r="C82" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H82" s="2">
+        <v>600</v>
+      </c>
+      <c r="I82" s="2">
+        <v>165</v>
+      </c>
+      <c r="J82" s="2">
+        <v>19</v>
+      </c>
+      <c r="K82" s="6">
+        <v>11.5151515151515</v>
+      </c>
+      <c r="L82" s="2">
+        <v>146</v>
+      </c>
+      <c r="Q82" s="2">
+        <v>4</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG82" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH82" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>444</v>
+      </c>
+      <c r="B83" s="2">
+        <v>42</v>
+      </c>
+      <c r="C83" s="3">
+        <v>44121</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H83" s="2">
+        <v>720</v>
+      </c>
+      <c r="I83" s="2">
+        <v>80</v>
+      </c>
+      <c r="J83" s="2">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>3</v>
+      </c>
+      <c r="R83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG83" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH83" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>445</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43</v>
+      </c>
+      <c r="C84" s="3">
+        <v>44123</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="2">
+        <v>600</v>
+      </c>
+      <c r="I84" s="2">
+        <v>137</v>
+      </c>
+      <c r="J84" s="2">
+        <v>11</v>
+      </c>
+      <c r="K84" s="6">
+        <v>8.0291970802919703</v>
+      </c>
+      <c r="L84" s="2">
+        <v>126</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>4</v>
+      </c>
+      <c r="R84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH84" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>446</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43</v>
+      </c>
+      <c r="C85" s="3">
+        <v>44123</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H85" s="2">
+        <v>600</v>
+      </c>
+      <c r="I85" s="2">
+        <v>190</v>
+      </c>
+      <c r="J85" s="2">
+        <v>4</v>
+      </c>
+      <c r="K85" s="6">
+        <v>2.1052631578947398</v>
+      </c>
+      <c r="L85" s="2">
+        <v>186</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>8</v>
+      </c>
+      <c r="R85" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y85" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH85" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>447</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43</v>
+      </c>
+      <c r="C86" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H86" s="2">
+        <v>600</v>
+      </c>
+      <c r="I86" s="2">
+        <v>140</v>
+      </c>
+      <c r="J86" s="2">
+        <v>19</v>
+      </c>
+      <c r="K86" s="6">
+        <v>13.5714285714286</v>
+      </c>
+      <c r="L86" s="2">
+        <v>121</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>8</v>
+      </c>
+      <c r="R86" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y86" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH86" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>448</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H87" s="2">
+        <v>600</v>
+      </c>
+      <c r="I87" s="2">
+        <v>157</v>
+      </c>
+      <c r="J87" s="2">
+        <v>0</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>157</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>8</v>
+      </c>
+      <c r="R87" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH87" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="88" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>449</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43</v>
+      </c>
+      <c r="C88" s="3">
+        <v>44123</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="2">
+        <v>660</v>
+      </c>
+      <c r="I88" s="2">
+        <v>431</v>
+      </c>
+      <c r="J88" s="2">
+        <v>4</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.92807424593967502</v>
+      </c>
+      <c r="L88" s="2">
+        <v>427</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>8</v>
+      </c>
+      <c r="R88" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y88" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH88" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="89" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>450</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43</v>
+      </c>
+      <c r="C89" s="3">
+        <v>44123</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H89" s="2">
+        <v>660</v>
+      </c>
+      <c r="I89" s="2">
+        <v>560</v>
+      </c>
+      <c r="J89" s="2">
+        <v>0</v>
+      </c>
+      <c r="K89" s="6">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2">
+        <v>560</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>8</v>
+      </c>
+      <c r="R89" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y89" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH89" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>451</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43</v>
+      </c>
+      <c r="C90" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H90" s="2">
+        <v>660</v>
+      </c>
+      <c r="I90" s="2">
+        <v>380</v>
+      </c>
+      <c r="J90" s="2">
+        <v>0</v>
+      </c>
+      <c r="K90" s="6">
+        <v>0</v>
+      </c>
+      <c r="L90" s="2">
+        <v>380</v>
+      </c>
+      <c r="Q90" s="2">
+        <v>8</v>
+      </c>
+      <c r="R90" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y90" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG90" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH90" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>452</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43</v>
+      </c>
+      <c r="C91" s="3">
+        <v>44123</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H91" s="2">
+        <v>540</v>
+      </c>
+      <c r="I91" s="2">
+        <v>171</v>
+      </c>
+      <c r="J91" s="2">
+        <v>0</v>
+      </c>
+      <c r="K91" s="6">
+        <v>0</v>
+      </c>
+      <c r="L91" s="2">
+        <v>171</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>8</v>
+      </c>
+      <c r="R91" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y91" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH91" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>453</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43</v>
+      </c>
+      <c r="C92" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H92" s="2">
+        <v>540</v>
+      </c>
+      <c r="I92" s="2">
+        <v>415</v>
+      </c>
+      <c r="J92" s="2">
+        <v>25</v>
+      </c>
+      <c r="K92" s="6">
+        <v>6.0240963855421699</v>
+      </c>
+      <c r="L92" s="2">
+        <v>390</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>8</v>
+      </c>
+      <c r="R92" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y92" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH92" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>454</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43</v>
+      </c>
+      <c r="C93" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H93" s="2">
+        <v>540</v>
+      </c>
+      <c r="I93" s="2">
+        <v>285</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="2">
+        <v>285</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>8</v>
+      </c>
+      <c r="R93" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH93" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>455</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43</v>
+      </c>
+      <c r="C94" s="3">
+        <v>44124</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H94" s="2">
+        <v>540</v>
+      </c>
+      <c r="I94" s="2">
+        <v>195</v>
+      </c>
+      <c r="J94" s="2">
+        <v>0</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <v>195</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>8</v>
+      </c>
+      <c r="R94" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y94" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG94" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH94" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>456</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43</v>
+      </c>
+      <c r="C95" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H95" s="2">
+        <v>660</v>
+      </c>
+      <c r="I95" s="2">
+        <v>57</v>
+      </c>
+      <c r="J95" s="2">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <v>57</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>8</v>
+      </c>
+      <c r="R95" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y95" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG95" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH95" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>457</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43</v>
+      </c>
+      <c r="C96" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H96" s="2">
+        <v>660</v>
+      </c>
+      <c r="I96" s="2">
+        <v>419</v>
+      </c>
+      <c r="J96" s="2">
+        <v>27</v>
+      </c>
+      <c r="K96" s="6">
+        <v>6.4439140811455902</v>
+      </c>
+      <c r="L96" s="2">
+        <v>392</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>8</v>
+      </c>
+      <c r="R96" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y96" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH96" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>458</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43</v>
+      </c>
+      <c r="C97" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H97" s="2">
+        <v>600</v>
+      </c>
+      <c r="I97" s="2">
+        <v>390</v>
+      </c>
+      <c r="J97" s="2">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <v>390</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>8</v>
+      </c>
+      <c r="R97" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y97" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH97" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>459</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43</v>
+      </c>
+      <c r="C98" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H98" s="2">
+        <v>600</v>
+      </c>
+      <c r="I98" s="2">
+        <v>400</v>
+      </c>
+      <c r="J98" s="2">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <v>400</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>8</v>
+      </c>
+      <c r="R98" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y98" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH98" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>460</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43</v>
+      </c>
+      <c r="C99" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H99" s="2">
+        <v>600</v>
+      </c>
+      <c r="I99" s="2">
+        <v>105</v>
+      </c>
+      <c r="J99" s="2">
+        <v>21</v>
+      </c>
+      <c r="K99" s="6">
+        <v>20</v>
+      </c>
+      <c r="L99" s="2">
+        <v>84</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>8</v>
+      </c>
+      <c r="R99" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y99" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH99" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>461</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43</v>
+      </c>
+      <c r="C100" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H100" s="2">
+        <v>720</v>
+      </c>
+      <c r="I100" s="2">
+        <v>148</v>
+      </c>
+      <c r="J100" s="2">
+        <v>26</v>
+      </c>
+      <c r="K100" s="6">
+        <v>17.5675675675676</v>
+      </c>
+      <c r="L100" s="2">
+        <v>122</v>
+      </c>
+      <c r="Q100" s="2">
+        <v>8</v>
+      </c>
+      <c r="R100" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y100" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG100" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH100" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>462</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43</v>
+      </c>
+      <c r="C101" s="3">
+        <v>44125</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H101" s="2">
+        <v>3000</v>
+      </c>
+      <c r="I101" s="2">
+        <v>3000</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <v>3000</v>
+      </c>
+      <c r="Q101" s="2">
+        <v>8</v>
+      </c>
+      <c r="R101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH101" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>463</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43</v>
+      </c>
+      <c r="C102" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" s="2">
+        <v>1200</v>
+      </c>
+      <c r="I102" s="2">
+        <v>600</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>600</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>8</v>
+      </c>
+      <c r="R102" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y102" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH102" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>464</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43</v>
+      </c>
+      <c r="C103" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H103" s="2">
+        <v>540</v>
+      </c>
+      <c r="I103" s="2">
+        <v>310</v>
+      </c>
+      <c r="J103" s="2">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
+      <c r="L103" s="2">
+        <v>310</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>8</v>
+      </c>
+      <c r="R103" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y103" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG103" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH103" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>465</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43</v>
+      </c>
+      <c r="C104" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H104" s="2">
+        <v>720</v>
+      </c>
+      <c r="I104" s="2">
+        <v>60</v>
+      </c>
+      <c r="J104" s="2">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6">
+        <v>0</v>
+      </c>
+      <c r="L104" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>2</v>
+      </c>
+      <c r="R104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y104" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG104" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH104" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>466</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43</v>
+      </c>
+      <c r="C105" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H105" s="2">
+        <v>720</v>
+      </c>
+      <c r="I105" s="2">
+        <v>70</v>
+      </c>
+      <c r="J105" s="2">
+        <v>0</v>
+      </c>
+      <c r="K105" s="6">
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>2</v>
+      </c>
+      <c r="R105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG105" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH105" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>467</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43</v>
+      </c>
+      <c r="C106" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H106" s="2">
+        <v>720</v>
+      </c>
+      <c r="I106" s="2">
+        <v>536</v>
+      </c>
+      <c r="J106" s="2">
+        <v>4</v>
+      </c>
+      <c r="K106" s="6">
+        <v>0.74626865671641796</v>
+      </c>
+      <c r="L106" s="2">
+        <v>532</v>
+      </c>
+      <c r="Q106" s="2">
+        <v>8</v>
+      </c>
+      <c r="R106" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y106" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG106" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH106" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>468</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43</v>
+      </c>
+      <c r="C107" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H107" s="2">
+        <v>600</v>
+      </c>
+      <c r="I107" s="2">
+        <v>240</v>
+      </c>
+      <c r="J107" s="2">
+        <v>65</v>
+      </c>
+      <c r="K107" s="6">
+        <v>27.0833333333333</v>
+      </c>
+      <c r="L107" s="2">
+        <v>175</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>8</v>
+      </c>
+      <c r="R107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG107" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH107" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>469</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43</v>
+      </c>
+      <c r="C108" s="3">
+        <v>44126</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="2">
+        <v>720</v>
+      </c>
+      <c r="I108" s="2">
+        <v>130</v>
+      </c>
+      <c r="J108" s="2">
+        <v>24</v>
+      </c>
+      <c r="K108" s="6">
+        <v>18.461538461538499</v>
+      </c>
+      <c r="L108" s="2">
+        <v>106</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>8</v>
+      </c>
+      <c r="R108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG108" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH108" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>470</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43</v>
+      </c>
+      <c r="C109" s="3">
+        <v>44127</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H109" s="2">
+        <v>720</v>
+      </c>
+      <c r="I109" s="2">
+        <v>117</v>
+      </c>
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="6">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <v>117</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>8</v>
+      </c>
+      <c r="R109" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y109" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG109" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH109" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>471</v>
+      </c>
+      <c r="B110" s="2">
+        <v>43</v>
+      </c>
+      <c r="C110" s="3">
+        <v>44127</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H110" s="2">
+        <v>660</v>
+      </c>
+      <c r="I110" s="2">
+        <v>310</v>
+      </c>
+      <c r="J110" s="2">
+        <v>15</v>
+      </c>
+      <c r="K110" s="6">
+        <v>4.8387096774193497</v>
+      </c>
+      <c r="L110" s="2">
+        <v>295</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>8</v>
+      </c>
+      <c r="R110" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y110" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG110" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH110" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>472</v>
+      </c>
+      <c r="B111" s="2">
+        <v>43</v>
+      </c>
+      <c r="C111" s="3">
+        <v>44127</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H111" s="2">
+        <v>500</v>
+      </c>
+      <c r="I111" s="2">
+        <v>310</v>
+      </c>
+      <c r="J111" s="2">
+        <v>0</v>
+      </c>
+      <c r="K111" s="6">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <v>310</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>8</v>
+      </c>
+      <c r="R111" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y111" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG111" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH111" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>473</v>
+      </c>
+      <c r="B112" s="2">
+        <v>43</v>
+      </c>
+      <c r="C112" s="3">
+        <v>44127</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H112" s="2">
+        <v>540</v>
+      </c>
+      <c r="I112" s="2">
+        <v>425</v>
+      </c>
+      <c r="J112" s="2">
+        <v>0</v>
+      </c>
+      <c r="K112" s="6">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <v>425</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>8</v>
+      </c>
+      <c r="R112" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y112" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG112" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH112" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>474</v>
+      </c>
+      <c r="B113" s="2">
+        <v>43</v>
+      </c>
+      <c r="C113" s="3">
+        <v>44127</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H113" s="2">
+        <v>540</v>
+      </c>
+      <c r="I113" s="2">
+        <v>475</v>
+      </c>
+      <c r="J113" s="2">
+        <v>0</v>
+      </c>
+      <c r="K113" s="6">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <v>475</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>8</v>
+      </c>
+      <c r="R113" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y113" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG113" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH113" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>475</v>
+      </c>
+      <c r="B114" s="2">
+        <v>43</v>
+      </c>
+      <c r="C114" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H114" s="2">
+        <v>600</v>
+      </c>
+      <c r="I114" s="2">
+        <v>105</v>
+      </c>
+      <c r="J114" s="2">
+        <v>13</v>
+      </c>
+      <c r="K114" s="6">
+        <v>12.380952380952399</v>
+      </c>
+      <c r="L114" s="2">
+        <v>92</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>8</v>
+      </c>
+      <c r="R114" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF114" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG114" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH114" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>476</v>
+      </c>
+      <c r="B115" s="2">
+        <v>43</v>
+      </c>
+      <c r="C115" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H115" s="2">
+        <v>720</v>
+      </c>
+      <c r="I115" s="2">
+        <v>162</v>
+      </c>
+      <c r="J115" s="2">
+        <v>3</v>
+      </c>
+      <c r="K115" s="6">
+        <v>1.8518518518518501</v>
+      </c>
+      <c r="L115" s="2">
+        <v>159</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>8</v>
+      </c>
+      <c r="R115" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y115" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF115" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG115" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH115" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="116" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>477</v>
+      </c>
+      <c r="B116" s="2">
+        <v>43</v>
+      </c>
+      <c r="C116" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H116" s="2">
+        <v>540</v>
+      </c>
+      <c r="I116" s="2">
+        <v>170</v>
+      </c>
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="6">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <v>170</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>8</v>
+      </c>
+      <c r="R116" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y116" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG116" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH116" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="117" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>478</v>
+      </c>
+      <c r="B117" s="2">
+        <v>43</v>
+      </c>
+      <c r="C117" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H117" s="2">
+        <v>540</v>
+      </c>
+      <c r="I117" s="2">
+        <v>353</v>
+      </c>
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="6">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2">
+        <v>353</v>
+      </c>
+      <c r="Q117" s="2">
+        <v>8</v>
+      </c>
+      <c r="R117" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y117" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG117" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH117" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>479</v>
+      </c>
+      <c r="B118" s="2">
+        <v>43</v>
+      </c>
+      <c r="C118" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H118" s="2">
+        <v>660</v>
+      </c>
+      <c r="I118" s="2">
+        <v>305</v>
+      </c>
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="6">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2">
+        <v>305</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>8</v>
+      </c>
+      <c r="R118" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y118" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF118" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH118" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>480</v>
+      </c>
+      <c r="B119" s="2">
+        <v>43</v>
+      </c>
+      <c r="C119" s="3">
+        <v>44128</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H119" s="2">
+        <v>660</v>
+      </c>
+      <c r="I119" s="2">
+        <v>135</v>
+      </c>
+      <c r="J119" s="2">
+        <v>15</v>
+      </c>
+      <c r="K119" s="6">
+        <v>11.1111111111111</v>
+      </c>
+      <c r="L119" s="2">
+        <v>120</v>
+      </c>
+      <c r="Q119" s="2">
+        <v>8</v>
+      </c>
+      <c r="R119" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y119" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF119" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG119" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH119" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>481</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44</v>
+      </c>
+      <c r="C120" s="3">
+        <v>44129</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H120" s="2">
+        <v>720</v>
+      </c>
+      <c r="I120" s="2">
+        <v>89</v>
+      </c>
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="6">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2">
+        <v>89</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>8</v>
+      </c>
+      <c r="R120" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y120" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF120" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG120" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH120" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>482</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44</v>
+      </c>
+      <c r="C121" s="3">
+        <v>44129</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H121" s="2">
+        <v>540</v>
+      </c>
+      <c r="I121" s="2">
+        <v>364</v>
+      </c>
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="6">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2">
+        <v>364</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>8</v>
+      </c>
+      <c r="R121" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y121" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC121" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG121" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH121" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>483</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44</v>
+      </c>
+      <c r="C122" s="3">
+        <v>44129</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H122" s="2">
+        <v>190</v>
+      </c>
+      <c r="I122" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q122" s="2">
+        <v>8</v>
+      </c>
+      <c r="R122" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y122" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC122" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF122" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH122" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>484</v>
+      </c>
+      <c r="B123" s="2">
+        <v>44</v>
+      </c>
+      <c r="C123" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H123" s="2">
+        <v>660</v>
+      </c>
+      <c r="I123" s="2">
+        <v>77</v>
+      </c>
+      <c r="J123" s="2">
+        <v>5</v>
+      </c>
+      <c r="K123" s="6">
+        <v>6.4935064935064899</v>
+      </c>
+      <c r="L123" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>8</v>
+      </c>
+      <c r="R123" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y123" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA123" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC123" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF123" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG123" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH123" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="124" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>485</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44</v>
+      </c>
+      <c r="C124" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" s="2">
+        <v>540</v>
+      </c>
+      <c r="I124" s="2">
+        <v>190</v>
+      </c>
+      <c r="J124" s="2">
+        <v>0</v>
+      </c>
+      <c r="K124" s="6">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2">
+        <v>190</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>8</v>
+      </c>
+      <c r="R124" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y124" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA124" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF124" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG124" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH124" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="125" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>486</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44</v>
+      </c>
+      <c r="C125" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H125" s="2">
+        <v>540</v>
+      </c>
+      <c r="I125" s="2">
+        <v>335</v>
+      </c>
+      <c r="J125" s="2">
+        <v>0</v>
+      </c>
+      <c r="K125" s="6">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2">
+        <v>335</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>8</v>
+      </c>
+      <c r="R125" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y125" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC125" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG125" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH125" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>487</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44</v>
+      </c>
+      <c r="C126" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H126" s="2">
+        <v>600</v>
+      </c>
+      <c r="I126" s="2">
+        <v>103</v>
+      </c>
+      <c r="J126" s="2">
+        <v>9</v>
+      </c>
+      <c r="K126" s="6">
+        <v>8.7378640776699008</v>
+      </c>
+      <c r="L126" s="2">
+        <v>94</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>8</v>
+      </c>
+      <c r="R126" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y126" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC126" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF126" s="2">
+        <v>480</v>
+      </c>
+      <c r="AG126" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH126" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="127" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>488</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44</v>
+      </c>
+      <c r="C127" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H127" s="2">
+        <v>720</v>
+      </c>
+      <c r="I127" s="2">
+        <v>450</v>
+      </c>
+      <c r="J127" s="2">
+        <v>0</v>
+      </c>
+      <c r="K127" s="6">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2">
+        <v>450</v>
+      </c>
+      <c r="Q127" s="2">
+        <v>8</v>
+      </c>
+      <c r="R127" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y127" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC127" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH127" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>489</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44</v>
+      </c>
+      <c r="C128" s="3">
+        <v>44130</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H128" s="2">
+        <v>720</v>
+      </c>
+      <c r="I128" s="2">
+        <v>162</v>
+      </c>
+      <c r="J128" s="2">
+        <v>16</v>
+      </c>
+      <c r="K128" s="6">
+        <v>9.8765432098765409</v>
+      </c>
+      <c r="L128" s="2">
+        <v>146</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>8</v>
+      </c>
+      <c r="R128" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y128" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF128" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG128" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH128" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>490</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44</v>
+      </c>
+      <c r="C129" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H129" s="2">
+        <v>600</v>
+      </c>
+      <c r="I129" s="2">
+        <v>135</v>
+      </c>
+      <c r="J129" s="2">
+        <v>19</v>
+      </c>
+      <c r="K129" s="6">
+        <v>14.074074074074099</v>
+      </c>
+      <c r="L129" s="2">
+        <v>116</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>8</v>
+      </c>
+      <c r="R129" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y129" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC129" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF129" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG129" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH129" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>491</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44</v>
+      </c>
+      <c r="C130" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H130" s="2">
+        <v>720</v>
+      </c>
+      <c r="I130" s="2">
+        <v>205</v>
+      </c>
+      <c r="J130" s="2">
+        <v>18</v>
+      </c>
+      <c r="K130" s="6">
+        <v>8.7804878048780495</v>
+      </c>
+      <c r="L130" s="2">
+        <v>187</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>8</v>
+      </c>
+      <c r="R130" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y130" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z130" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA130" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC130" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF130" s="2">
+        <v>300</v>
+      </c>
+      <c r="AG130" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH130" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="131" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>492</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44</v>
+      </c>
+      <c r="C131" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H131" s="2">
+        <v>720</v>
+      </c>
+      <c r="I131" s="2">
+        <v>553</v>
+      </c>
+      <c r="J131" s="2">
+        <v>0</v>
+      </c>
+      <c r="K131" s="6">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <v>553</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>8</v>
+      </c>
+      <c r="R131" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y131" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC131" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH131" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>493</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44</v>
+      </c>
+      <c r="C132" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H132" s="2">
+        <v>720</v>
+      </c>
+      <c r="I132" s="2">
+        <v>484</v>
+      </c>
+      <c r="J132" s="2">
+        <v>5</v>
+      </c>
+      <c r="K132" s="6">
+        <v>1.03305785123967</v>
+      </c>
+      <c r="L132" s="2">
+        <v>479</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>8</v>
+      </c>
+      <c r="R132" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y132" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH132" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="133" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>494</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44</v>
+      </c>
+      <c r="C133" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H133" s="2">
+        <v>500</v>
+      </c>
+      <c r="I133" s="2">
+        <v>320</v>
+      </c>
+      <c r="J133" s="2">
+        <v>0</v>
+      </c>
+      <c r="K133" s="6">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <v>320</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>8</v>
+      </c>
+      <c r="R133" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y133" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH133" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="134" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>495</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44</v>
+      </c>
+      <c r="C134" s="3">
+        <v>44131</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" s="2">
+        <v>540</v>
+      </c>
+      <c r="I134" s="2">
+        <v>320</v>
+      </c>
+      <c r="J134" s="2">
+        <v>0</v>
+      </c>
+      <c r="K134" s="6">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2">
+        <v>320</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>8</v>
+      </c>
+      <c r="R134" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y134" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH134" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>496</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44</v>
+      </c>
+      <c r="C135" s="3">
+        <v>44132</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H135" s="2">
+        <v>600</v>
+      </c>
+      <c r="I135" s="2">
+        <v>45</v>
+      </c>
+      <c r="J135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K135" s="6">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>8</v>
+      </c>
+      <c r="R135" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y135" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF135" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH135" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>497</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44</v>
+      </c>
+      <c r="C136" s="3">
+        <v>44132</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H136" s="2">
+        <v>600</v>
+      </c>
+      <c r="I136" s="2">
+        <v>175</v>
+      </c>
+      <c r="J136" s="2">
+        <v>26</v>
+      </c>
+      <c r="K136" s="6">
+        <v>14.8571428571429</v>
+      </c>
+      <c r="L136" s="2">
+        <v>149</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>8</v>
+      </c>
+      <c r="R136" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y136" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF136" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH136" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>498</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44</v>
+      </c>
+      <c r="C137" s="3">
+        <v>44133</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H137" s="2">
+        <v>660</v>
+      </c>
+      <c r="I137" s="2">
+        <v>110</v>
+      </c>
+      <c r="J137" s="2">
+        <v>5</v>
+      </c>
+      <c r="K137" s="6">
+        <v>4.5454545454545503</v>
+      </c>
+      <c r="L137" s="2">
+        <v>105</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>8</v>
+      </c>
+      <c r="R137" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y137" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG137" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH137" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>499</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44</v>
+      </c>
+      <c r="C138" s="3">
+        <v>44133</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H138" s="2">
+        <v>500</v>
+      </c>
+      <c r="I138" s="2">
+        <v>280</v>
+      </c>
+      <c r="J138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K138" s="6">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>8</v>
+      </c>
+      <c r="R138" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y138" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF138" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG138" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH138" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="139" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>500</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44</v>
+      </c>
+      <c r="C139" s="3">
+        <v>44133</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H139" s="2">
+        <v>600</v>
+      </c>
+      <c r="I139" s="2">
+        <v>57</v>
+      </c>
+      <c r="J139" s="2">
+        <v>5</v>
+      </c>
+      <c r="K139" s="6">
+        <v>8.7719298245614006</v>
+      </c>
+      <c r="L139" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>8</v>
+      </c>
+      <c r="R139" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y139" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF139" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH139" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="140" spans="1:34" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>501</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44</v>
+      </c>
+      <c r="C140" s="3">
+        <v>44133</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H140" s="2">
+        <v>600</v>
+      </c>
+      <c r="I140" s="2">
+        <v>175</v>
+      </c>
+      <c r="J140" s="2">
+        <v>18</v>
+      </c>
+      <c r="K140" s="6">
+        <v>10.285714285714301</v>
+      </c>
+      <c r="L140" s="2">
+        <v>157</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>8</v>
+      </c>
+      <c r="R140" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y140" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF140" s="2">
+        <v>360</v>
+      </c>
+      <c r="AG140" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH140" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
